--- a/data/xlsx/02252019.xlsx
+++ b/data/xlsx/02252019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8918DC71-BB8A-654B-B7BD-99B08ED3AE63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6580117-BA1E-1E4F-93B9-1EB4CE8BBA6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -728,11 +728,9 @@
     <col min="3" max="3" width="12"/>
     <col min="4" max="5" width="19"/>
     <col min="8" max="8" width="8"/>
-    <col min="9" max="10" width="21"/>
-    <col min="11" max="11" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -757,9 +755,8 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>43521</v>
       </c>
@@ -784,9 +781,8 @@
       <c r="H2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>43521</v>
       </c>
@@ -811,9 +807,8 @@
       <c r="H3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>43521</v>
       </c>
@@ -838,9 +833,8 @@
       <c r="H4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>43521</v>
       </c>
@@ -865,9 +859,8 @@
       <c r="H5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>43521</v>
       </c>
@@ -892,9 +885,8 @@
       <c r="H6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>43521</v>
       </c>
@@ -919,9 +911,8 @@
       <c r="H7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>43521</v>
       </c>
@@ -946,10 +937,8 @@
       <c r="H8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>43521</v>
       </c>
@@ -974,9 +963,8 @@
       <c r="H9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>43521</v>
       </c>
@@ -1001,10 +989,8 @@
       <c r="H10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>43521</v>
       </c>
@@ -1029,10 +1015,8 @@
       <c r="H11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>43521</v>
       </c>
@@ -1057,10 +1041,8 @@
       <c r="H12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>43521</v>
       </c>
@@ -1085,10 +1067,8 @@
       <c r="H13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>43521</v>
       </c>
@@ -1113,9 +1093,8 @@
       <c r="H14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>43521</v>
       </c>
@@ -1140,9 +1119,8 @@
       <c r="H15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>43521</v>
       </c>
@@ -1167,10 +1145,8 @@
       <c r="H16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>43521</v>
       </c>
@@ -1195,10 +1171,8 @@
       <c r="H17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>43521</v>
       </c>
@@ -1223,9 +1197,8 @@
       <c r="H18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>43521</v>
       </c>
@@ -1250,10 +1223,8 @@
       <c r="H19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>43521</v>
       </c>
@@ -1278,9 +1249,8 @@
       <c r="H20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>43521</v>
       </c>
@@ -1305,9 +1275,8 @@
       <c r="H21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>43521</v>
       </c>
@@ -1332,9 +1301,8 @@
       <c r="H22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>43521</v>
       </c>
@@ -1359,9 +1327,8 @@
       <c r="H23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>43521</v>
       </c>
@@ -1386,7 +1353,6 @@
       <c r="H24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/02252019.xlsx
+++ b/data/xlsx/02252019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6580117-BA1E-1E4F-93B9-1EB4CE8BBA6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF751BB4-CB99-EA43-BD60-86E3A0F30D0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,6 +335,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -376,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
